--- a/data/case1/20/Qlm2_1.xlsx
+++ b/data/case1/20/Qlm2_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.078251485611197324</v>
+        <v>-0.084042413456785425</v>
       </c>
       <c r="B1" s="0">
-        <v>0.077646539900065648</v>
+        <v>0.083619274454129311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.08522504047835433</v>
+        <v>-0.078495911584279376</v>
       </c>
       <c r="B2" s="0">
-        <v>0.084084240730181392</v>
+        <v>0.077594614292483932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.095118693356548434</v>
+        <v>-0.027882539853408161</v>
       </c>
       <c r="B3" s="0">
-        <v>0.094718731339154871</v>
+        <v>0.027699769204394542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.086718731391465909</v>
+        <v>-0.019699769291849023</v>
       </c>
       <c r="B4" s="0">
-        <v>0.086365479001869971</v>
+        <v>0.019548385495772536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.083365479028600475</v>
+        <v>-0.016548385534271404</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0821764328520036</v>
+        <v>0.016054038224358358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.017086963132422639</v>
+        <v>-0.0088993639610741582</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.017149363128933004</v>
+        <v>0.0088563173766331715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.027149363057246578</v>
+        <v>0.0011436825160355824</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.027164113175828675</v>
+        <v>-0.0011452201362973646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.037164113106222807</v>
+        <v>0.011145220029479042</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.037233216456559415</v>
+        <v>-0.011154361215045316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.039233216436830087</v>
+        <v>0.013154361190590436</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.039314598649361709</v>
+        <v>-0.013172502868687097</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.041314598634558664</v>
+        <v>0.015172502847530467</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.041321780999224345</v>
+        <v>-0.015172490565385388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0023487215845658937</v>
+        <v>0.018172490534557717</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0023486113738675485</v>
+        <v>-0.018178794308143509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0058486113508999793</v>
+        <v>0.021678794273428004</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0058613546050501064</v>
+        <v>-0.021786218214385311</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0093613545835289358</v>
+        <v>0.025286218186552745</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0093794976236845073</v>
+        <v>-0.025378176061526148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.017379497577427294</v>
+        <v>-0.0090759581539199274</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.017419530596668231</v>
+        <v>0.0090494283667847952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.018419530591121891</v>
+        <v>-0.0080494283674976685</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.018476409763764856</v>
+        <v>0.0080323288260935044</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.020476409754017766</v>
+        <v>-0.0060323288373926864</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.020718168233163414</v>
+        <v>0.0060029627815514353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.022718168226852242</v>
+        <v>-0.0040029627936597478</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.022821416609628109</v>
+        <v>0.003999999967744472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0054406819682810692</v>
+        <v>0.00087663706964491439</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0055639244347815975</v>
+        <v>-0.0010560762335103391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091661358486494</v>
+        <v>0.0050560761928384323</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016588931926808</v>
+        <v>-0.0064555237831585011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165889568366566</v>
+        <v>-0.0021456602969500693</v>
       </c>
       <c r="B20" s="0">
-        <v>0.008005636006814143</v>
+        <v>0.0020581235254368835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056360320361861</v>
+        <v>0.0019418764346941231</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999745239379</v>
+        <v>-0.0020624633656112223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.015034452599563153</v>
+        <v>-0.045712074485814824</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.015187924375084094</v>
+        <v>0.045499143673954023</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.020187924343221475</v>
+        <v>-0.040499143734098908</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.020483136830328874</v>
+        <v>0.040098892733897884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098493553073027</v>
+        <v>-0.020098892949373948</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999883181019</v>
+        <v>0.019999999781303401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097263396011785019</v>
+        <v>-0.0051546742921360078</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097138221724865303</v>
+        <v>0.005129591177810866</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094638221756714103</v>
+        <v>-0.0026295912116260922</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094476849163163124</v>
+        <v>0.0025993713052212541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091976849197631605</v>
+        <v>-9.9371339022269467e-05</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091019917881137058</v>
+        <v>-6.9779779524381524e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089019917923702785</v>
+        <v>0.0020697797513182792</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088364771381099771</v>
+        <v>-0.0021690800117317721</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081364771459948138</v>
+        <v>0.0091690799346109131</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081174896266881902</v>
+        <v>-0.0091895140862936486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021174896649900798</v>
+        <v>0.069189513484288145</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023858433936393</v>
+        <v>-0.069508867644950012</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023858519152554</v>
+        <v>2.2494176025844581e-05</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001208837026269</v>
+        <v>-8.5877020829627781e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040012089394778627</v>
+        <v>0.010085876928094706</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999314641599</v>
+        <v>-0.010122491249346055</v>
       </c>
     </row>
   </sheetData>
